--- a/biology/Zoologie/Acropsopilio_chilensis/Acropsopilio_chilensis.xlsx
+++ b/biology/Zoologie/Acropsopilio_chilensis/Acropsopilio_chilensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acropsopilio chilensis est une espèce d'opilions dyspnois de la famille des Acropsopilionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Chili, en Argentine, au Brésil et en Bolivie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Chili, en Argentine, au Brésil et en Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 1,5 mm de long et 1 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 1,5 mm de long et 1 mm de large.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Silvestri en 1904.
-Acropsopilio chilensis ogloblini[3] a été placée en synonymie par Shear en 1974[4].
-Acropsopilio normae[5] a été placée en synonymie par Capocasale en 2004[6].
+Acropsopilio chilensis ogloblini a été placée en synonymie par Shear en 1974.
+Acropsopilio normae a été placée en synonymie par Capocasale en 2004.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de chil[e] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Chili.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Silvestri, 1904 : « Descrizione di un nuovo genere di Opilionidi del Chile. » Redia, vol. 2, p. 254–256 (texte intégral).</t>
         </is>
